--- a/data/trans_dic/P16B01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,67; 89,01</t>
+          <t>56,72; 87,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,08; 68,9</t>
+          <t>36,37; 68,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,83; 65,27</t>
+          <t>29,88; 63,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,26; 72,33</t>
+          <t>33,68; 71,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,4; 70,19</t>
+          <t>29,59; 70,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,75; 81,97</t>
+          <t>40,64; 81,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,98; 76,49</t>
+          <t>53,09; 76,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,92; 63,67</t>
+          <t>39,42; 64,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,04; 65,95</t>
+          <t>38,96; 66,36</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 76,34</t>
+          <t>34,82; 75,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,55; 77,16</t>
+          <t>36,68; 77,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 70,07</t>
+          <t>32,43; 73,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,94; 78,46</t>
+          <t>42,12; 79,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,02; 90,54</t>
+          <t>60,73; 90,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,69; 89,02</t>
+          <t>57,19; 88,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 71,89</t>
+          <t>44,61; 72,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,31; 80,36</t>
+          <t>54,94; 80,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,58; 77,34</t>
+          <t>50,77; 75,69</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,22; 83,07</t>
+          <t>54,95; 83,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,6; 85,26</t>
+          <t>60,24; 85,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,78; 81,77</t>
+          <t>50,66; 81,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,47; 100,0</t>
+          <t>52,7; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>44,15; 85,24</t>
+          <t>43,67; 89,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,19; 87,01</t>
+          <t>37,02; 86,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,69; 85,12</t>
+          <t>62,54; 85,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,17; 82,32</t>
+          <t>60,13; 82,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,63; 78,71</t>
+          <t>52,47; 79,4</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,07; 88,26</t>
+          <t>72,48; 88,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,43; 83,83</t>
+          <t>66,58; 83,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,26; 72,77</t>
+          <t>51,79; 72,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,39; 90,07</t>
+          <t>66,55; 89,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,78; 85,92</t>
+          <t>67,1; 85,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 75,15</t>
+          <t>50,12; 75,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,63; 87,09</t>
+          <t>74,07; 87,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,25; 82,61</t>
+          <t>70,62; 82,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55,65; 71,16</t>
+          <t>54,5; 70,66</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,19; 96,27</t>
+          <t>66,68; 96,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,64; 93,69</t>
+          <t>72,95; 94,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,5; 84,24</t>
+          <t>54,89; 83,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,42; 93,36</t>
+          <t>64,43; 93,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,53; 84,65</t>
+          <t>59,48; 84,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,56; 82,57</t>
+          <t>58,64; 82,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,07; 91,94</t>
+          <t>70,54; 91,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,55; 86,83</t>
+          <t>71,83; 87,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,61; 80,1</t>
+          <t>62,06; 79,98</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,33; 84,36</t>
+          <t>38,24; 84,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,5; 67,37</t>
+          <t>27,35; 64,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,54; 64,63</t>
+          <t>16,48; 62,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>62,22; 83,66</t>
+          <t>62,22; 83,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>60,26; 80,03</t>
+          <t>60,27; 79,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,2; 72,15</t>
+          <t>51,28; 71,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,11; 79,84</t>
+          <t>60,61; 80,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55,7; 73,26</t>
+          <t>55,28; 73,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,24; 67,87</t>
+          <t>49,37; 68,06</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>68,58; 80,36</t>
+          <t>68,7; 80,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,66; 74,43</t>
+          <t>63,79; 75,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,79; 66,55</t>
+          <t>53,66; 66,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,96; 78,9</t>
+          <t>66,73; 79,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,65</t>
+          <t>66,29; 76,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,11; 72,41</t>
+          <t>60,52; 71,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,59; 77,94</t>
+          <t>69,99; 78,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>66,72; 74,62</t>
+          <t>67,09; 74,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,27; 67,94</t>
+          <t>58,82; 67,5</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el catarro fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22942</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25009</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13928</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13281</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13185</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36871</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38290</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30487</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17117; 26536</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17390; 32624</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10786; 22924</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8872; 18848</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7802; 18556</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8534; 17109</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>30008; 43475</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29239; 47640</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22247; 37891</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13978</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17244</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14702</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17444</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24524</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24430</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31422</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41769</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39131</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8533; 18486</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11012; 23259</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9227; 20931</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11955; 22541</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19079; 28454</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18429; 28448</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23593; 38353</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33758; 49354</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30804; 45928</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30137</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40860</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30001</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13845</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13347</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10490</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43982</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54206</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40491</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23231; 35293</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32984; 46884</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22611; 36278</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8670; 16451</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8550; 17484</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5894; 13810</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36730; 50028</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44692; 61558</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31776; 48080</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70127</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>86945</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>56124</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40089</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60776</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39525</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>110215</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>147720</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>95649</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>62591; 76358</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75865; 95267</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45851; 64334</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33161; 44828</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52747; 67112</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31445; 47280</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100870; 119250</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135990; 159657</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>82444; 106889</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21425</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39555</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29486</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26260</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40378</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43180</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47685</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79933</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72666</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16758; 24190</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33544; 43309</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22847; 34756</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20612; 29978</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32134; 45654</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34839; 49194</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>40296; 52448</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71836; 87650</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>62696; 80809</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10699</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46436</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>60291</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>61603</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>57135</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>72665</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>68696</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6560; 14442</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7306; 17254</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2917; 11133</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>39293; 52423</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51205; 67894</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>50463; 70675</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48676; 64362</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>61733; 82069</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>57321; 79019</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>169309</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>221987</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>154709</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>158002</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>212595</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>192413</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>327310</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>434582</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>347122</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>154998; 181512</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>203635; 239704</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>137942; 170266</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>144232; 170951</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>195530; 226417</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>175313; 208015</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>309191; 346202</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>412037; 457761</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>321595; 369065</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B01-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
